--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB14.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB14.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
   <si>
-    <t>PERFORMANCE-BASED CONTRACT FOR THE LONG-TERM MANAGEMENT AND MAINTENANCE OF STATE ROADS IN SARAWAK</t>
-  </si>
-  <si>
     <t>PROPOSED ANNUAL WORK PROGRAMME AND BUDGET 2022 (PROPOSED PLANNED BUDGET)</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>Authorised Name, Signature &amp; Chop:</t>
+  </si>
+  <si>
+    <t>FORMANCE-BASED CONTRACT FOR THE LONG-TERM MANAGEMENT AND MAINTENANCE OF STATE ROADS IN SARAWAK</t>
   </si>
 </sst>
 </file>
@@ -1403,6 +1403,75 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -1450,75 +1519,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1862,69 +1862,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="117" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1939,16 +1939,16 @@
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
-      <c r="L4" s="124" t="s">
+      <c r="L4" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1965,130 +1965,130 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" s="67"/>
       <c r="O5" s="62"/>
       <c r="P5" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="122"/>
+        <v>5</v>
+      </c>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="93"/>
     </row>
     <row r="6" spans="1:18" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="64" t="s">
+      <c r="R6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="65" t="s">
+    </row>
+    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="109" t="s">
+      <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="102"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="98"/>
+      <c r="B8" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="113"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="109"/>
-      <c r="B8" s="114" t="s">
+      <c r="C8" s="104"/>
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="F8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="G8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="H8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="I8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="J8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="K8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="L8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="M8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="N8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="O8" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="P8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="Q8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="89" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="119" t="s">
-        <v>29</v>
       </c>
       <c r="B9" s="11">
         <v>1011</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
@@ -2104,17 +2104,17 @@
       <c r="P9" s="37"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="102"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="15">
         <v>1012</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
@@ -2130,17 +2130,17 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="36"/>
       <c r="R10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="102"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="15">
         <v>3013</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
@@ -2156,17 +2156,17 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="102"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="15">
         <v>3014</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -2182,17 +2182,17 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="102"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="15">
         <v>3015</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
@@ -2208,17 +2208,17 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="102"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="15">
         <v>3016</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
@@ -2234,17 +2234,17 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="36"/>
       <c r="R14" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="102"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="15">
         <v>3017</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
@@ -2260,17 +2260,17 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="102"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="15">
         <v>3018</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
@@ -2286,17 +2286,17 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="102"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="22">
         <v>3019</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
@@ -2312,19 +2312,19 @@
       <c r="P17" s="40"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="119" t="s">
-        <v>43</v>
+      <c r="A18" s="89" t="s">
+        <v>42</v>
       </c>
       <c r="B18" s="26">
         <v>1021</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="50"/>
       <c r="F18" s="13"/>
@@ -2340,17 +2340,17 @@
       <c r="P18" s="37"/>
       <c r="Q18" s="36"/>
       <c r="R18" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="102"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="15">
         <v>3022</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
@@ -2366,17 +2366,17 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="102"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="15">
         <v>3023</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
@@ -2392,17 +2392,17 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="120"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="22">
         <v>3024</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="24"/>
@@ -2418,19 +2418,19 @@
       <c r="P21" s="40"/>
       <c r="Q21" s="36"/>
       <c r="R21" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="106" t="s">
-        <v>49</v>
+      <c r="A22" s="96" t="s">
+        <v>48</v>
       </c>
       <c r="B22" s="11">
         <v>1041</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="54"/>
@@ -2446,17 +2446,17 @@
       <c r="P22" s="54"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="107"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="15">
         <v>1042</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
@@ -2472,17 +2472,17 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="36"/>
       <c r="R23" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="107"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="15">
         <v>1043</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
@@ -2498,17 +2498,17 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="36"/>
       <c r="R24" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="15">
         <v>4044</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
@@ -2524,17 +2524,17 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="36"/>
       <c r="R25" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="107"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="22">
         <v>4045</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
@@ -2550,19 +2550,19 @@
       <c r="P26" s="41"/>
       <c r="Q26" s="36"/>
       <c r="R26" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="106" t="s">
-        <v>55</v>
+      <c r="A27" s="96" t="s">
+        <v>54</v>
       </c>
       <c r="B27" s="26">
         <v>1031</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
@@ -2578,17 +2578,17 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="36"/>
       <c r="R27" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="107"/>
+      <c r="A28" s="97"/>
       <c r="B28" s="15">
         <v>1032</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
@@ -2604,17 +2604,17 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="47"/>
       <c r="R28" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="107"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="15">
         <v>4033</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
@@ -2630,17 +2630,17 @@
       <c r="P29" s="39"/>
       <c r="Q29" s="36"/>
       <c r="R29" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="107"/>
+      <c r="A30" s="97"/>
       <c r="B30" s="22">
         <v>4034</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
@@ -2656,19 +2656,19 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="36"/>
       <c r="R30" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="106" t="s">
-        <v>60</v>
+      <c r="A31" s="96" t="s">
+        <v>59</v>
       </c>
       <c r="B31" s="11">
         <v>1051</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
@@ -2684,17 +2684,17 @@
       <c r="P31" s="42"/>
       <c r="Q31" s="36"/>
       <c r="R31" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="107"/>
+      <c r="A32" s="97"/>
       <c r="B32" s="22">
         <v>6052</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24"/>
@@ -2710,19 +2710,19 @@
       <c r="P32" s="40"/>
       <c r="Q32" s="36"/>
       <c r="R32" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="106" t="s">
-        <v>64</v>
+      <c r="A33" s="96" t="s">
+        <v>63</v>
       </c>
       <c r="B33" s="11">
         <v>1061</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="30"/>
@@ -2738,17 +2738,17 @@
       <c r="P33" s="59"/>
       <c r="Q33" s="47"/>
       <c r="R33" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="107"/>
+      <c r="A34" s="97"/>
       <c r="B34" s="15">
         <v>6062</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
@@ -2764,7 +2764,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="36"/>
       <c r="R34" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
@@ -2790,19 +2790,19 @@
       <c r="P35" s="60"/>
       <c r="Q35" s="47"/>
       <c r="R35" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="102" t="s">
-        <v>68</v>
+      <c r="A36" s="90" t="s">
+        <v>67</v>
       </c>
       <c r="B36" s="26">
         <v>1071</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="50"/>
       <c r="F36" s="13"/>
@@ -2818,17 +2818,17 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="102"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="15">
         <v>1072</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="57"/>
       <c r="F37" s="17"/>
@@ -2844,17 +2844,17 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="36"/>
       <c r="R37" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="102"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="15">
         <v>1073</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
@@ -2870,17 +2870,17 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="102"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="15">
         <v>7074</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
@@ -2896,17 +2896,17 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="102"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="22">
         <v>7075</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="24"/>
@@ -2922,19 +2922,19 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="36"/>
       <c r="R40" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="103" t="s">
-        <v>74</v>
+      <c r="A41" s="105" t="s">
+        <v>73</v>
       </c>
       <c r="B41" s="11">
         <v>9091</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
@@ -2950,17 +2950,17 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="36"/>
       <c r="R41" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="104"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="15">
         <v>9092</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
@@ -2976,17 +2976,17 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="36"/>
       <c r="R42" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="104"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="15">
         <v>9093</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
@@ -3002,17 +3002,17 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="36"/>
       <c r="R43" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44" s="104"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="15">
         <v>9194</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
@@ -3028,17 +3028,17 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="36"/>
       <c r="R44" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" s="104"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="15">
         <v>9195</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
@@ -3054,17 +3054,17 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="36"/>
       <c r="R45" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46" s="105"/>
+      <c r="A46" s="107"/>
       <c r="B46" s="22">
         <v>9500</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" s="23">
         <v>0</v>
@@ -3104,180 +3104,161 @@
       </c>
       <c r="Q46" s="47"/>
       <c r="R46" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="112"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="112"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C48" s="113"/>
+      <c r="D48" s="68" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="89"/>
-      <c r="R47" s="89"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C48" s="90"/>
-      <c r="D48" s="68" t="s">
+      <c r="E48" s="68" t="s">
         <v>85</v>
-      </c>
-      <c r="E48" s="68" t="s">
-        <v>86</v>
       </c>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
       <c r="I48" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J48" s="69"/>
       <c r="K48" s="69"/>
       <c r="L48" s="69"/>
       <c r="M48" s="70"/>
       <c r="N48" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O48" s="69"/>
       <c r="P48" s="69"/>
       <c r="Q48" s="70"/>
-      <c r="R48" s="91"/>
+      <c r="R48" s="114"/>
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C49" s="90"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="99" t="s">
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="99" t="s">
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
+      <c r="L49" s="123"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="99" t="s">
+      <c r="O49" s="123"/>
+      <c r="P49" s="123"/>
+      <c r="Q49" s="124"/>
+      <c r="R49" s="114"/>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C50" s="113"/>
+      <c r="D50" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="O49" s="100"/>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="91"/>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C50" s="90"/>
-      <c r="D50" s="72" t="s">
-        <v>93</v>
-      </c>
       <c r="E50" s="72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F50" s="73"/>
       <c r="G50" s="73"/>
       <c r="H50" s="74"/>
       <c r="I50" s="75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" s="73"/>
       <c r="K50" s="73"/>
       <c r="L50" s="73"/>
       <c r="M50" s="74"/>
       <c r="N50" s="72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O50" s="73"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="74"/>
-      <c r="R50" s="91"/>
+      <c r="R50" s="114"/>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C51" s="90"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="85"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="93"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="91"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="118"/>
+      <c r="K51" s="118"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="115"/>
+      <c r="O51" s="116"/>
+      <c r="P51" s="116"/>
+      <c r="Q51" s="117"/>
+      <c r="R51" s="114"/>
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C52" s="90"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="77"/>
       <c r="E52" s="77"/>
       <c r="F52" s="78"/>
       <c r="G52" s="78"/>
       <c r="H52" s="79"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="98"/>
+      <c r="I52" s="119"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="120"/>
+      <c r="L52" s="120"/>
+      <c r="M52" s="121"/>
       <c r="N52" s="76"/>
       <c r="O52" s="73"/>
       <c r="P52" s="73"/>
       <c r="Q52" s="74"/>
-      <c r="R52" s="91"/>
+      <c r="R52" s="114"/>
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C53" s="90"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="84"/>
       <c r="E53" s="84"/>
       <c r="F53" s="80"/>
       <c r="G53" s="80"/>
       <c r="H53" s="80"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="88"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="110"/>
+      <c r="L53" s="110"/>
+      <c r="M53" s="111"/>
       <c r="N53" s="81"/>
       <c r="O53" s="82"/>
       <c r="P53" s="82"/>
       <c r="Q53" s="83"/>
-      <c r="R53" s="91"/>
+      <c r="R53" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A35"/>
     <mergeCell ref="I53:M53"/>
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="D47:R47"/>
@@ -3289,6 +3270,25 @@
     <mergeCell ref="E49:H49"/>
     <mergeCell ref="I49:M49"/>
     <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB14.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB14.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
-  <si>
-    <t>PROPOSED ANNUAL WORK PROGRAMME AND BUDGET 2022 (PROPOSED PLANNED BUDGET)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>APPENDIX 14-A: RMU BATU NIAH</t>
   </si>
@@ -1403,6 +1400,96 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1415,9 +1502,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1432,93 +1516,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1852,7 +1849,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1862,69 +1859,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1939,16 +1934,16 @@
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1965,130 +1960,130 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="67"/>
       <c r="O5" s="62"/>
       <c r="P5" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="93"/>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="122"/>
     </row>
     <row r="6" spans="1:18" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="64" t="s">
+      <c r="R6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="65" t="s">
+    </row>
+    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="109" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="98" t="s">
+      <c r="B7" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100" t="s">
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="113"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="109"/>
+      <c r="B8" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="102"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="98"/>
-      <c r="B8" s="103" t="s">
+      <c r="C8" s="115"/>
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="F8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="G8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="H8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="I8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="J8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="K8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="L8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="M8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="N8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="O8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="P8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="Q8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="119" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="89" t="s">
-        <v>28</v>
       </c>
       <c r="B9" s="11">
         <v>1011</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
@@ -2104,17 +2099,17 @@
       <c r="P9" s="37"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="90"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="15">
         <v>1012</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
@@ -2130,17 +2125,17 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="36"/>
       <c r="R10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="90"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="15">
         <v>3013</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
@@ -2156,17 +2151,17 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="15">
         <v>3014</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -2182,17 +2177,17 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="15">
         <v>3015</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
@@ -2208,17 +2203,17 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="15">
         <v>3016</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
@@ -2234,17 +2229,17 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="36"/>
       <c r="R14" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="90"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="15">
         <v>3017</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
@@ -2260,17 +2255,17 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="90"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="15">
         <v>3018</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
@@ -2286,17 +2281,17 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="90"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="22">
         <v>3019</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
@@ -2312,19 +2307,19 @@
       <c r="P17" s="40"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="89" t="s">
-        <v>42</v>
+      <c r="A18" s="119" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="26">
         <v>1021</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="50"/>
       <c r="F18" s="13"/>
@@ -2340,17 +2335,17 @@
       <c r="P18" s="37"/>
       <c r="Q18" s="36"/>
       <c r="R18" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="90"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="15">
         <v>3022</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
@@ -2366,17 +2361,17 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="90"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="15">
         <v>3023</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
@@ -2392,17 +2387,17 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="91"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="22">
         <v>3024</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="24"/>
@@ -2418,19 +2413,19 @@
       <c r="P21" s="40"/>
       <c r="Q21" s="36"/>
       <c r="R21" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="96" t="s">
-        <v>48</v>
+      <c r="A22" s="106" t="s">
+        <v>47</v>
       </c>
       <c r="B22" s="11">
         <v>1041</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="54"/>
@@ -2446,17 +2441,17 @@
       <c r="P22" s="54"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="97"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="15">
         <v>1042</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
@@ -2472,17 +2467,17 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="36"/>
       <c r="R23" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="97"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="15">
         <v>1043</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
@@ -2498,17 +2493,17 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="36"/>
       <c r="R24" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="97"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="15">
         <v>4044</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
@@ -2524,17 +2519,17 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="36"/>
       <c r="R25" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="97"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="22">
         <v>4045</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
@@ -2550,19 +2545,19 @@
       <c r="P26" s="41"/>
       <c r="Q26" s="36"/>
       <c r="R26" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="96" t="s">
-        <v>54</v>
+      <c r="A27" s="106" t="s">
+        <v>53</v>
       </c>
       <c r="B27" s="26">
         <v>1031</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
@@ -2578,17 +2573,17 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="36"/>
       <c r="R27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="97"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="15">
         <v>1032</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
@@ -2604,17 +2599,17 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="47"/>
       <c r="R28" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="97"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="15">
         <v>4033</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
@@ -2630,17 +2625,17 @@
       <c r="P29" s="39"/>
       <c r="Q29" s="36"/>
       <c r="R29" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="97"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="22">
         <v>4034</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
@@ -2656,19 +2651,19 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="36"/>
       <c r="R30" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="96" t="s">
-        <v>59</v>
+      <c r="A31" s="106" t="s">
+        <v>58</v>
       </c>
       <c r="B31" s="11">
         <v>1051</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
@@ -2684,17 +2679,17 @@
       <c r="P31" s="42"/>
       <c r="Q31" s="36"/>
       <c r="R31" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="97"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="22">
         <v>6052</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24"/>
@@ -2710,19 +2705,19 @@
       <c r="P32" s="40"/>
       <c r="Q32" s="36"/>
       <c r="R32" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="96" t="s">
-        <v>63</v>
+      <c r="A33" s="106" t="s">
+        <v>62</v>
       </c>
       <c r="B33" s="11">
         <v>1061</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="30"/>
@@ -2738,17 +2733,17 @@
       <c r="P33" s="59"/>
       <c r="Q33" s="47"/>
       <c r="R33" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="97"/>
+      <c r="A34" s="107"/>
       <c r="B34" s="15">
         <v>6062</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
@@ -2764,7 +2759,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="36"/>
       <c r="R34" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
@@ -2774,7 +2769,7 @@
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
@@ -2790,19 +2785,19 @@
       <c r="P35" s="60"/>
       <c r="Q35" s="47"/>
       <c r="R35" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="90" t="s">
-        <v>67</v>
+      <c r="A36" s="102" t="s">
+        <v>66</v>
       </c>
       <c r="B36" s="26">
         <v>1071</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="50"/>
       <c r="F36" s="13"/>
@@ -2818,17 +2813,17 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="90"/>
+      <c r="A37" s="102"/>
       <c r="B37" s="15">
         <v>1072</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="57"/>
       <c r="F37" s="17"/>
@@ -2844,17 +2839,17 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="36"/>
       <c r="R37" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="90"/>
+      <c r="A38" s="102"/>
       <c r="B38" s="15">
         <v>1073</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
@@ -2870,17 +2865,17 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="90"/>
+      <c r="A39" s="102"/>
       <c r="B39" s="15">
         <v>7074</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
@@ -2896,17 +2891,17 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="90"/>
+      <c r="A40" s="102"/>
       <c r="B40" s="22">
         <v>7075</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="24"/>
@@ -2922,19 +2917,19 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="36"/>
       <c r="R40" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="105" t="s">
-        <v>73</v>
+      <c r="A41" s="103" t="s">
+        <v>72</v>
       </c>
       <c r="B41" s="11">
         <v>9091</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
@@ -2950,17 +2945,17 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="36"/>
       <c r="R41" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="106"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="15">
         <v>9092</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
@@ -2976,17 +2971,17 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="36"/>
       <c r="R42" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="106"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="15">
         <v>9093</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
@@ -3002,17 +2997,17 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="36"/>
       <c r="R43" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44" s="106"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="15">
         <v>9194</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
@@ -3028,17 +3023,17 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="36"/>
       <c r="R44" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" s="106"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="15">
         <v>9195</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
@@ -3054,17 +3049,17 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="36"/>
       <c r="R45" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46" s="107"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="22">
         <v>9500</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46" s="23">
         <v>0</v>
@@ -3104,161 +3099,180 @@
       </c>
       <c r="Q46" s="47"/>
       <c r="R46" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C48" s="90"/>
+      <c r="D48" s="68" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="112"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="112"/>
-      <c r="M47" s="112"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="112"/>
-      <c r="Q47" s="112"/>
-      <c r="R47" s="112"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C48" s="113"/>
-      <c r="D48" s="68" t="s">
+      <c r="E48" s="68" t="s">
         <v>84</v>
-      </c>
-      <c r="E48" s="68" t="s">
-        <v>85</v>
       </c>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
       <c r="I48" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J48" s="69"/>
       <c r="K48" s="69"/>
       <c r="L48" s="69"/>
       <c r="M48" s="70"/>
       <c r="N48" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O48" s="69"/>
       <c r="P48" s="69"/>
       <c r="Q48" s="70"/>
-      <c r="R48" s="114"/>
+      <c r="R48" s="91"/>
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C49" s="113"/>
+      <c r="C49" s="90"/>
       <c r="D49" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="122" t="s">
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="122" t="s">
+      <c r="J49" s="100"/>
+      <c r="K49" s="100"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="J49" s="123"/>
-      <c r="K49" s="123"/>
-      <c r="L49" s="123"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="122" t="s">
+      <c r="O49" s="100"/>
+      <c r="P49" s="100"/>
+      <c r="Q49" s="101"/>
+      <c r="R49" s="91"/>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C50" s="90"/>
+      <c r="D50" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="O49" s="123"/>
-      <c r="P49" s="123"/>
-      <c r="Q49" s="124"/>
-      <c r="R49" s="114"/>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C50" s="113"/>
-      <c r="D50" s="72" t="s">
-        <v>92</v>
-      </c>
       <c r="E50" s="72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="73"/>
       <c r="G50" s="73"/>
       <c r="H50" s="74"/>
       <c r="I50" s="75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="73"/>
       <c r="K50" s="73"/>
       <c r="L50" s="73"/>
       <c r="M50" s="74"/>
       <c r="N50" s="72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="73"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="74"/>
-      <c r="R50" s="114"/>
+      <c r="R50" s="91"/>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C51" s="113"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="85"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="117"/>
-      <c r="N51" s="115"/>
-      <c r="O51" s="116"/>
-      <c r="P51" s="116"/>
-      <c r="Q51" s="117"/>
-      <c r="R51" s="114"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="92"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="91"/>
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C52" s="113"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="77"/>
       <c r="E52" s="77"/>
       <c r="F52" s="78"/>
       <c r="G52" s="78"/>
       <c r="H52" s="79"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="121"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
+      <c r="M52" s="98"/>
       <c r="N52" s="76"/>
       <c r="O52" s="73"/>
       <c r="P52" s="73"/>
       <c r="Q52" s="74"/>
-      <c r="R52" s="114"/>
+      <c r="R52" s="91"/>
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C53" s="113"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="84"/>
       <c r="E53" s="84"/>
       <c r="F53" s="80"/>
       <c r="G53" s="80"/>
       <c r="H53" s="80"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="110"/>
-      <c r="K53" s="110"/>
-      <c r="L53" s="110"/>
-      <c r="M53" s="111"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="88"/>
       <c r="N53" s="81"/>
       <c r="O53" s="82"/>
       <c r="P53" s="82"/>
       <c r="Q53" s="83"/>
-      <c r="R53" s="114"/>
+      <c r="R53" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="I53:M53"/>
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="D47:R47"/>
@@ -3270,25 +3284,6 @@
     <mergeCell ref="E49:H49"/>
     <mergeCell ref="I49:M49"/>
     <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB14.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB14.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="19140" windowHeight="6840"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19140" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="FormB14" sheetId="1" r:id="rId1"/>
@@ -14,30 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
   <si>
     <t>APPENDIX 14-A: RMU BATU NIAH</t>
   </si>
   <si>
-    <t>Revision calculated based on no of B14 created for the same RMU and Year</t>
-  </si>
-  <si>
-    <t>User select Calendar Date</t>
-  </si>
-  <si>
     <t>REVISION:</t>
   </si>
   <si>
     <t>ISSUE DATE:</t>
-  </si>
-  <si>
-    <t>User to fill in the quantity according with limit of sum must equal to the 'Sub-total' Column Q</t>
-  </si>
-  <si>
-    <t>Ref from Template B13 Column Z</t>
-  </si>
-  <si>
-    <t>From B10 Column E</t>
   </si>
   <si>
     <t>Features</t>
@@ -454,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,12 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,7 +1143,7 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1338,24 +1322,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,6 +1366,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -1448,75 +1468,40 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1554,6 +1539,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1602,7 +1590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1637,7 +1625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1848,81 +1836,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="118" t="s">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -1934,19 +1922,15 @@
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
-      <c r="L4" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1958,132 +1942,126 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="122"/>
-    </row>
-    <row r="6" spans="1:18" ht="93" x14ac:dyDescent="0.35">
+      <c r="L5" s="125"/>
+      <c r="M5" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="122"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="87"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="64" t="s">
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="118"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="90"/>
+      <c r="B8" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="C8" s="93"/>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="109" t="s">
+      <c r="E8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="F8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
+      <c r="G8" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="113"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="109"/>
-      <c r="B8" s="114" t="s">
+      <c r="H8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="5" t="s">
+      <c r="I8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="J8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="K8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="L8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="M8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="N8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="O8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="P8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="Q8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="R8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="44" t="s">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="83" t="s">
         <v>22</v>
-      </c>
-      <c r="O8" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="119" t="s">
-        <v>27</v>
       </c>
       <c r="B9" s="11">
         <v>1011</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="34" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
@@ -2099,17 +2077,17 @@
       <c r="P9" s="37"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="102"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
       <c r="B10" s="15">
         <v>1012</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
@@ -2125,17 +2103,17 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="36"/>
       <c r="R10" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="102"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="84"/>
       <c r="B11" s="15">
         <v>3013</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="35" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
@@ -2151,17 +2129,17 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="102"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="84"/>
       <c r="B12" s="15">
         <v>3014</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -2177,17 +2155,17 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="102"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="84"/>
       <c r="B13" s="15">
         <v>3015</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
@@ -2203,17 +2181,17 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="102"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="84"/>
       <c r="B14" s="15">
         <v>3016</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
@@ -2229,17 +2207,17 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="36"/>
       <c r="R14" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="102"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="84"/>
       <c r="B15" s="15">
         <v>3017</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
@@ -2255,17 +2233,17 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="102"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="84"/>
       <c r="B16" s="15">
         <v>3018</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
@@ -2281,17 +2259,17 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="102"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="84"/>
       <c r="B17" s="22">
         <v>3019</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
@@ -2307,19 +2285,19 @@
       <c r="P17" s="40"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="119" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="26">
         <v>1021</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E18" s="50"/>
       <c r="F18" s="13"/>
@@ -2335,17 +2313,17 @@
       <c r="P18" s="37"/>
       <c r="Q18" s="36"/>
       <c r="R18" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="102"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
       <c r="B19" s="15">
         <v>3022</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
@@ -2361,17 +2339,17 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="102"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="84"/>
       <c r="B20" s="15">
         <v>3023</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
@@ -2387,17 +2365,17 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="120"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="85"/>
       <c r="B21" s="22">
         <v>3024</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="24"/>
@@ -2413,19 +2391,19 @@
       <c r="P21" s="40"/>
       <c r="Q21" s="36"/>
       <c r="R21" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="106" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="88" t="s">
+        <v>42</v>
       </c>
       <c r="B22" s="11">
         <v>1041</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="54"/>
@@ -2441,17 +2419,17 @@
       <c r="P22" s="54"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="107"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="89"/>
       <c r="B23" s="15">
         <v>1042</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
@@ -2467,17 +2445,17 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="36"/>
       <c r="R23" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="107"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="89"/>
       <c r="B24" s="15">
         <v>1043</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
@@ -2493,17 +2471,17 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="36"/>
       <c r="R24" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="89"/>
       <c r="B25" s="15">
         <v>4044</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
@@ -2519,17 +2497,17 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="36"/>
       <c r="R25" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="107"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="89"/>
       <c r="B26" s="22">
         <v>4045</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
@@ -2545,19 +2523,19 @@
       <c r="P26" s="41"/>
       <c r="Q26" s="36"/>
       <c r="R26" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="106" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="88" t="s">
+        <v>48</v>
       </c>
       <c r="B27" s="26">
         <v>1031</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
@@ -2573,17 +2551,17 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="36"/>
       <c r="R27" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="107"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="89"/>
       <c r="B28" s="15">
         <v>1032</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="35" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
@@ -2599,17 +2577,17 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="47"/>
       <c r="R28" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="107"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="89"/>
       <c r="B29" s="15">
         <v>4033</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="35" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
@@ -2625,17 +2603,17 @@
       <c r="P29" s="39"/>
       <c r="Q29" s="36"/>
       <c r="R29" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="107"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="89"/>
       <c r="B30" s="22">
         <v>4034</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
@@ -2651,19 +2629,19 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="36"/>
       <c r="R30" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="106" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="88" t="s">
+        <v>53</v>
       </c>
       <c r="B31" s="11">
         <v>1051</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
@@ -2679,17 +2657,17 @@
       <c r="P31" s="42"/>
       <c r="Q31" s="36"/>
       <c r="R31" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="107"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="89"/>
       <c r="B32" s="22">
         <v>6052</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24"/>
@@ -2705,19 +2683,19 @@
       <c r="P32" s="40"/>
       <c r="Q32" s="36"/>
       <c r="R32" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="106" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="88" t="s">
+        <v>57</v>
       </c>
       <c r="B33" s="11">
         <v>1061</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="30"/>
@@ -2733,17 +2711,17 @@
       <c r="P33" s="59"/>
       <c r="Q33" s="47"/>
       <c r="R33" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="107"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="89"/>
       <c r="B34" s="15">
         <v>6062</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
@@ -2759,17 +2737,17 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="36"/>
       <c r="R34" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="108"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="97"/>
       <c r="B35" s="22">
         <v>6063</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
@@ -2785,19 +2763,19 @@
       <c r="P35" s="60"/>
       <c r="Q35" s="47"/>
       <c r="R35" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="102" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="84" t="s">
+        <v>61</v>
       </c>
       <c r="B36" s="26">
         <v>1071</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E36" s="50"/>
       <c r="F36" s="13"/>
@@ -2813,17 +2791,17 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="102"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="84"/>
       <c r="B37" s="15">
         <v>1072</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E37" s="57"/>
       <c r="F37" s="17"/>
@@ -2839,17 +2817,17 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="36"/>
       <c r="R37" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="102"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="84"/>
       <c r="B38" s="15">
         <v>1073</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
@@ -2865,17 +2843,17 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="102"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="84"/>
       <c r="B39" s="15">
         <v>7074</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
@@ -2891,17 +2869,17 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="102"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="84"/>
       <c r="B40" s="22">
         <v>7075</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="24"/>
@@ -2917,19 +2895,19 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="36"/>
       <c r="R40" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="103" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="94" t="s">
+        <v>67</v>
       </c>
       <c r="B41" s="11">
         <v>9091</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
@@ -2945,17 +2923,17 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="36"/>
       <c r="R41" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="104"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="95"/>
       <c r="B42" s="15">
         <v>9092</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
@@ -2971,17 +2949,17 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="36"/>
       <c r="R42" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="104"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="95"/>
       <c r="B43" s="15">
         <v>9093</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
@@ -2997,17 +2975,17 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="36"/>
       <c r="R43" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44" s="104"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="95"/>
       <c r="B44" s="15">
         <v>9194</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="35" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
@@ -3023,17 +3001,17 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="36"/>
       <c r="R44" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" s="104"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="95"/>
       <c r="B45" s="15">
         <v>9195</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
@@ -3049,17 +3027,17 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="36"/>
       <c r="R45" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46" s="105"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="96"/>
       <c r="B46" s="22">
         <v>9500</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E46" s="23">
         <v>0</v>
@@ -3099,180 +3077,161 @@
       </c>
       <c r="Q46" s="47"/>
       <c r="R46" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="101"/>
+      <c r="O47" s="101"/>
+      <c r="P47" s="101"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="101"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C48" s="102"/>
+      <c r="D48" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="103"/>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C49" s="102"/>
+      <c r="D49" s="65" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="89"/>
-      <c r="R47" s="89"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C48" s="90"/>
-      <c r="D48" s="68" t="s">
+      <c r="E49" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="68" t="s">
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="68" t="s">
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="68" t="s">
+      <c r="O49" s="112"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="113"/>
+      <c r="R49" s="103"/>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C50" s="102"/>
+      <c r="D50" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="O48" s="69"/>
-      <c r="P48" s="69"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="91"/>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C49" s="90"/>
-      <c r="D49" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="99" t="s">
-        <v>90</v>
-      </c>
-      <c r="O49" s="100"/>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="91"/>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C50" s="90"/>
-      <c r="D50" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="O50" s="73"/>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="74"/>
-      <c r="R50" s="91"/>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C51" s="90"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="93"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="91"/>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C52" s="90"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="74"/>
-      <c r="R52" s="91"/>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C53" s="90"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="91"/>
+      <c r="E50" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="103"/>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C51" s="102"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="107"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="106"/>
+      <c r="N51" s="104"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="106"/>
+      <c r="R51" s="103"/>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C52" s="102"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="109"/>
+      <c r="L52" s="109"/>
+      <c r="M52" s="110"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="68"/>
+      <c r="R52" s="103"/>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C53" s="102"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="77"/>
+      <c r="R53" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A35"/>
     <mergeCell ref="I53:M53"/>
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="D47:R47"/>
@@ -3284,6 +3243,25 @@
     <mergeCell ref="E49:H49"/>
     <mergeCell ref="I49:M49"/>
     <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB14.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB14.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omnex\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19140" windowHeight="6840"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="19140" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="FormB14" sheetId="1" r:id="rId1"/>
@@ -1344,16 +1344,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1366,6 +1356,112 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="169" fontId="22" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1378,9 +1474,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1390,82 +1483,7 @@
     <xf numFmtId="169" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,34 +1492,18 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1837,80 +1839,80 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.26953125" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="61"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -1922,15 +1924,15 @@
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1942,19 +1944,19 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="121" t="s">
+      <c r="L5" s="81"/>
+      <c r="M5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="122"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="124" t="s">
+      <c r="N5" s="78"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="87"/>
-    </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="Q5" s="117"/>
+      <c r="R5" s="118"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1971,41 +1973,41 @@
       <c r="N6" s="119"/>
       <c r="O6" s="119"/>
       <c r="P6" s="119"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="116" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="118"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
-      <c r="B8" s="92" t="s">
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="105"/>
+      <c r="B8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="93"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2052,8 +2054,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="115" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="11">
@@ -2080,8 +2082,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="98"/>
       <c r="B10" s="15">
         <v>1012</v>
       </c>
@@ -2106,8 +2108,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="98"/>
       <c r="B11" s="15">
         <v>3013</v>
       </c>
@@ -2132,8 +2134,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="98"/>
       <c r="B12" s="15">
         <v>3014</v>
       </c>
@@ -2158,8 +2160,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="98"/>
       <c r="B13" s="15">
         <v>3015</v>
       </c>
@@ -2184,8 +2186,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="98"/>
       <c r="B14" s="15">
         <v>3016</v>
       </c>
@@ -2210,8 +2212,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="98"/>
       <c r="B15" s="15">
         <v>3017</v>
       </c>
@@ -2236,8 +2238,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="98"/>
       <c r="B16" s="15">
         <v>3018</v>
       </c>
@@ -2262,8 +2264,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="98"/>
       <c r="B17" s="22">
         <v>3019</v>
       </c>
@@ -2288,8 +2290,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="115" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="26">
@@ -2316,8 +2318,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="98"/>
       <c r="B19" s="15">
         <v>3022</v>
       </c>
@@ -2342,8 +2344,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="98"/>
       <c r="B20" s="15">
         <v>3023</v>
       </c>
@@ -2368,8 +2370,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="116"/>
       <c r="B21" s="22">
         <v>3024</v>
       </c>
@@ -2394,8 +2396,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="88" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="102" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="11">
@@ -2422,8 +2424,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="103"/>
       <c r="B23" s="15">
         <v>1042</v>
       </c>
@@ -2448,8 +2450,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="103"/>
       <c r="B24" s="15">
         <v>1043</v>
       </c>
@@ -2474,8 +2476,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="103"/>
       <c r="B25" s="15">
         <v>4044</v>
       </c>
@@ -2500,8 +2502,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="103"/>
       <c r="B26" s="22">
         <v>4045</v>
       </c>
@@ -2526,8 +2528,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="88" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="102" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="26">
@@ -2554,8 +2556,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="103"/>
       <c r="B28" s="15">
         <v>1032</v>
       </c>
@@ -2580,8 +2582,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="103"/>
       <c r="B29" s="15">
         <v>4033</v>
       </c>
@@ -2606,8 +2608,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="103"/>
       <c r="B30" s="22">
         <v>4034</v>
       </c>
@@ -2632,8 +2634,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="88" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="102" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="11">
@@ -2660,8 +2662,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="103"/>
       <c r="B32" s="22">
         <v>6052</v>
       </c>
@@ -2686,8 +2688,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="88" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="102" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="11">
@@ -2714,8 +2716,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="103"/>
       <c r="B34" s="15">
         <v>6062</v>
       </c>
@@ -2740,8 +2742,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" s="104"/>
       <c r="B35" s="22">
         <v>6063</v>
       </c>
@@ -2766,8 +2768,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="98" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="26">
@@ -2794,8 +2796,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" s="98"/>
       <c r="B37" s="15">
         <v>1072</v>
       </c>
@@ -2820,8 +2822,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" s="98"/>
       <c r="B38" s="15">
         <v>1073</v>
       </c>
@@ -2846,8 +2848,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="98"/>
       <c r="B39" s="15">
         <v>7074</v>
       </c>
@@ -2872,8 +2874,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" s="98"/>
       <c r="B40" s="22">
         <v>7075</v>
       </c>
@@ -2898,8 +2900,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" s="99" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="11">
@@ -2926,8 +2928,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="95"/>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" s="100"/>
       <c r="B42" s="15">
         <v>9092</v>
       </c>
@@ -2952,8 +2954,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" s="100"/>
       <c r="B43" s="15">
         <v>9093</v>
       </c>
@@ -2978,8 +2980,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" s="100"/>
       <c r="B44" s="15">
         <v>9194</v>
       </c>
@@ -3004,8 +3006,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" s="100"/>
       <c r="B45" s="15">
         <v>9195</v>
       </c>
@@ -3030,8 +3032,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="96"/>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" s="101"/>
       <c r="B46" s="22">
         <v>9500</v>
       </c>
@@ -3080,26 +3082,26 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="101"/>
-      <c r="M47" s="101"/>
-      <c r="N47" s="101"/>
-      <c r="O47" s="101"/>
-      <c r="P47" s="101"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="101"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C48" s="102"/>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="85"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C48" s="86"/>
       <c r="D48" s="62" t="s">
         <v>78</v>
       </c>
@@ -3122,36 +3124,36 @@
       <c r="O48" s="63"/>
       <c r="P48" s="63"/>
       <c r="Q48" s="64"/>
-      <c r="R48" s="103"/>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C49" s="102"/>
+      <c r="R48" s="87"/>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C49" s="86"/>
       <c r="D49" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="E49" s="111" t="s">
+      <c r="E49" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="111" t="s">
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="J49" s="112"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="112"/>
-      <c r="M49" s="113"/>
-      <c r="N49" s="111" t="s">
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="97"/>
+      <c r="N49" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="O49" s="112"/>
-      <c r="P49" s="112"/>
-      <c r="Q49" s="113"/>
-      <c r="R49" s="103"/>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C50" s="102"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="97"/>
+      <c r="R49" s="87"/>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C50" s="86"/>
       <c r="D50" s="66" t="s">
         <v>86</v>
       </c>
@@ -3174,64 +3176,83 @@
       <c r="O50" s="67"/>
       <c r="P50" s="67"/>
       <c r="Q50" s="68"/>
-      <c r="R50" s="103"/>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C51" s="102"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="107"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="106"/>
-      <c r="N51" s="104"/>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105"/>
-      <c r="Q51" s="106"/>
-      <c r="R51" s="103"/>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C52" s="102"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="109"/>
-      <c r="K52" s="109"/>
-      <c r="L52" s="109"/>
-      <c r="M52" s="110"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="67"/>
-      <c r="Q52" s="68"/>
-      <c r="R52" s="103"/>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C53" s="102"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="99"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="77"/>
-      <c r="R53" s="103"/>
+      <c r="R50" s="87"/>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C51" s="86"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="87"/>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C52" s="86"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="90"/>
+      <c r="R52" s="87"/>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C53" s="86"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="I53:M53"/>
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="D47:R47"/>
@@ -3243,25 +3264,8 @@
     <mergeCell ref="E49:H49"/>
     <mergeCell ref="I49:M49"/>
     <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="N52:Q52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
